--- a/Tabella_Excel.xlsx
+++ b/Tabella_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico Orlacchio\Desktop\Primo anno ECL\ECL_S8_D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico Orlacchio\Desktop\Primo anno ECL\ECL_S8_D\PLM_Grande_Roue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F17BC6-33A4-4539-A2A0-2D8546E13A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F783A9E-C90B-4602-90D6-01651F99611D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,8 +1632,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3745,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="T23" s="1" t="b">
-        <f t="shared" ref="T22:T27" si="15" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="T23" si="15" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="U23" s="1">
@@ -4268,8 +4268,7 @@
         <v>18</v>
       </c>
       <c r="X29" s="1" t="b">
-        <f t="shared" ref="X28:X29" si="21" xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4283,7 +4282,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1" t="b">
-        <f t="shared" ref="D30:D38" si="22">TRUE</f>
+        <f t="shared" ref="D30:D38" si="21">TRUE</f>
         <v>1</v>
       </c>
       <c r="E30" s="1">
@@ -4363,7 +4362,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E31" s="1">
@@ -4429,7 +4428,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E32" s="1">
@@ -4468,7 +4467,7 @@
         <v>14</v>
       </c>
       <c r="P32" s="1" t="b">
-        <f t="shared" ref="P32:P34" si="23" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="P32:P34" si="22" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="U32" s="1">
@@ -4496,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E33" s="1">
@@ -4535,7 +4534,7 @@
         <v>14</v>
       </c>
       <c r="P33" s="1" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U33" s="1">
@@ -4563,7 +4562,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E34" s="1">
@@ -4589,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="b">
-        <f t="shared" ref="L34:L36" si="24" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="L34:L36" si="23" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="M34" s="1">
@@ -4602,7 +4601,7 @@
         <v>14</v>
       </c>
       <c r="P34" s="1" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="U34" s="1">
@@ -4629,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E35" s="1">
@@ -4655,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="1" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M35" s="1">
@@ -4683,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E36" s="1">
@@ -4709,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="L36" s="1" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M36" s="1">
@@ -4722,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="P36" s="1" t="b">
-        <f t="shared" ref="P36:P40" si="25" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="P36:P40" si="24" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -4737,7 +4736,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -4776,7 +4775,7 @@
         <v>14</v>
       </c>
       <c r="P37" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4791,7 +4790,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E38" s="1">
@@ -4830,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="P38" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4871,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="P39" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -4912,7 +4911,7 @@
         <v>18</v>
       </c>
       <c r="P40" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5031,7 +5030,7 @@
       </c>
       <c r="X47" s="2">
         <f xml:space="preserve"> COUNTIF(X2:X34, "VRAI")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA47" s="5" t="s">
         <v>25</v>
@@ -5082,7 +5081,7 @@
       </c>
       <c r="X48">
         <f>COUNTIF(X2:X34, "FAUX")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="5" t="s">
         <v>26</v>
@@ -5184,7 +5183,7 @@
       </c>
       <c r="X50">
         <f xml:space="preserve"> X47/X49</f>
-        <v>0.93939393939393945</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="AA50" s="5" t="s">
         <v>28</v>
@@ -5200,7 +5199,7 @@
       </c>
       <c r="B52">
         <f xml:space="preserve"> D47+H47+L47+P47+T47+X47+AB47</f>
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5217,7 @@
       </c>
       <c r="B54">
         <f xml:space="preserve"> B52/B53</f>
-        <v>0.92244897959183669</v>
+        <v>0.92653061224489797</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5256,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="2" t="b">
-        <f t="shared" ref="D59:D64" si="26">FALSE</f>
+        <f t="shared" ref="D59:D64" si="25">FALSE</f>
         <v>0</v>
       </c>
       <c r="E59" s="1">
@@ -5322,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="X59" s="1" t="b">
-        <f t="shared" ref="T59:X65" si="27" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="T59:X65" si="26" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
@@ -5335,7 +5334,7 @@
         <v>6</v>
       </c>
       <c r="AB59" s="1" t="b">
-        <f t="shared" ref="AB59" si="28" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="AB59" si="27" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5350,7 +5349,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="2" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E60" s="1">
@@ -5363,7 +5362,7 @@
         <v>10</v>
       </c>
       <c r="H60" s="1" t="b">
-        <f t="shared" ref="H60:H61" si="29" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="H60:H61" si="28" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="I60" s="1">
@@ -5376,7 +5375,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="1" t="b">
-        <f t="shared" ref="L60" si="30" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="L60" si="29" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="M60" s="1">
@@ -5389,7 +5388,7 @@
         <v>11</v>
       </c>
       <c r="P60" t="b">
-        <f t="shared" ref="P60:P62" si="31" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="P60:P62" si="30" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
@@ -5402,7 +5401,7 @@
         <v>7</v>
       </c>
       <c r="T60" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U60" s="1">
@@ -5415,7 +5414,7 @@
         <v>7</v>
       </c>
       <c r="X60" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -5430,7 +5429,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E61" s="1">
@@ -5443,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="1" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -5469,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="P61" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
@@ -5482,7 +5481,7 @@
         <v>7</v>
       </c>
       <c r="T61" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U61" s="1">
@@ -5495,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="1" t="b">
-        <f t="shared" ref="X61:X63" si="32" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X61:X63" si="31" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5510,7 +5509,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E62" s="1">
@@ -5549,7 +5548,7 @@
         <v>23</v>
       </c>
       <c r="P62" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
@@ -5562,7 +5561,7 @@
         <v>7</v>
       </c>
       <c r="T62" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U62" s="1">
@@ -5575,7 +5574,7 @@
         <v>24</v>
       </c>
       <c r="X62" s="1" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -5590,7 +5589,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E63" s="1">
@@ -5616,7 +5615,7 @@
         <v>17</v>
       </c>
       <c r="L63" s="1" t="b">
-        <f t="shared" ref="L63:L65" si="33" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="L63:L65" si="32" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="M63" s="1">
@@ -5642,7 +5641,7 @@
         <v>7</v>
       </c>
       <c r="T63" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U63" s="1">
@@ -5655,7 +5654,7 @@
         <v>18</v>
       </c>
       <c r="X63" s="1" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -5670,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E64" s="1">
@@ -5696,7 +5695,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="1" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
@@ -5722,7 +5721,7 @@
         <v>7</v>
       </c>
       <c r="T64" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U64" s="1">
@@ -5735,7 +5734,7 @@
         <v>18</v>
       </c>
       <c r="X64" t="b">
-        <f t="shared" ref="X64:X65" si="34" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X64:X65" si="33" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5776,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="L65" s="1" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
@@ -5802,7 +5801,7 @@
         <v>7</v>
       </c>
       <c r="T65" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U65" s="1">
@@ -5815,7 +5814,7 @@
         <v>18</v>
       </c>
       <c r="X65" t="b">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>

--- a/Tabella_Excel.xlsx
+++ b/Tabella_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico Orlacchio\Desktop\Primo anno ECL\ECL_S8_D\PLM_Grande_Roue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F783A9E-C90B-4602-90D6-01651F99611D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC070FA-64D1-4018-A808-B55E943B0E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,11 +190,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,6 +220,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1632,8 +1648,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3745,8 +3761,7 @@
         <v>18</v>
       </c>
       <c r="T23" s="1" t="b">
-        <f t="shared" ref="T23" si="15" xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="1">
         <v>4114689</v>
@@ -3861,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="AB24" s="1" t="b">
-        <f t="shared" ref="AB24" si="16" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="AB24" si="15" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -3902,8 +3917,8 @@
         <v>10</v>
       </c>
       <c r="L25" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
         <v>4210997</v>
@@ -3966,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="1" t="b">
-        <f t="shared" ref="D26:D28" si="17">TRUE</f>
+        <f t="shared" ref="D26:D28" si="16">TRUE</f>
         <v>1</v>
       </c>
       <c r="E26" s="1">
@@ -4045,7 +4060,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="1" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E27" s="1">
@@ -4058,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="1" t="b">
-        <f t="shared" ref="H27:H44" si="18" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="H27:H44" si="17" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="I27" s="1">
@@ -4124,7 +4139,7 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E28" s="1">
@@ -4137,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I28" s="1">
@@ -4176,7 +4191,7 @@
         <v>10</v>
       </c>
       <c r="T28" s="1" t="b">
-        <f t="shared" ref="T28:T29" si="19" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="T28:T29" si="18" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="U28" s="1">
@@ -4216,7 +4231,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I29" s="1">
@@ -4229,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="1" t="b">
-        <f t="shared" ref="L29:L31" si="20" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="L29:L31" si="19" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="M29" s="1">
@@ -4255,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="1" t="b">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U29" s="1">
@@ -4282,7 +4297,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1" t="b">
-        <f t="shared" ref="D30:D38" si="21">TRUE</f>
+        <f t="shared" ref="D30:D38" si="20">TRUE</f>
         <v>1</v>
       </c>
       <c r="E30" s="1">
@@ -4295,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I30" s="1">
@@ -4308,7 +4323,7 @@
         <v>10</v>
       </c>
       <c r="L30" s="1" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M30" s="1">
@@ -4362,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E31" s="1">
@@ -4375,7 +4390,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I31" s="1">
@@ -4388,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="1" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M31" s="1">
@@ -4428,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E32" s="1">
@@ -4441,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I32" s="1">
@@ -4467,7 +4482,7 @@
         <v>14</v>
       </c>
       <c r="P32" s="1" t="b">
-        <f t="shared" ref="P32:P34" si="22" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="P32:P34" si="21" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="U32" s="1">
@@ -4495,7 +4510,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E33" s="1">
@@ -4508,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I33" s="1">
@@ -4534,7 +4549,7 @@
         <v>14</v>
       </c>
       <c r="P33" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U33" s="1">
@@ -4547,8 +4562,8 @@
         <v>18</v>
       </c>
       <c r="X33" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4562,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E34" s="1">
@@ -4575,7 +4590,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I34" s="1">
@@ -4588,7 +4603,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="b">
-        <f t="shared" ref="L34:L36" si="23" xml:space="preserve"> TRUE</f>
+        <f t="shared" ref="L34:L36" si="22" xml:space="preserve"> TRUE</f>
         <v>1</v>
       </c>
       <c r="M34" s="1">
@@ -4601,7 +4616,7 @@
         <v>14</v>
       </c>
       <c r="P34" s="1" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="U34" s="1">
@@ -4628,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E35" s="1">
@@ -4641,7 +4656,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I35" s="1">
@@ -4654,7 +4669,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="1" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M35" s="1">
@@ -4667,8 +4682,8 @@
         <v>14</v>
       </c>
       <c r="P35" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4682,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E36" s="1">
@@ -4695,7 +4710,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I36" s="1">
@@ -4708,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="L36" s="1" t="b">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M36" s="1">
@@ -4721,8 +4736,8 @@
         <v>14</v>
       </c>
       <c r="P36" s="1" t="b">
-        <f t="shared" ref="P36:P40" si="24" xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4736,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -4749,7 +4764,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I37" s="1">
@@ -4774,9 +4789,9 @@
       <c r="O37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P37" s="1" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
+      <c r="P37" s="8" t="b">
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4790,7 +4805,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="1" t="b">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E38" s="1">
@@ -4803,7 +4818,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I38" s="1">
@@ -4828,9 +4843,9 @@
       <c r="O38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P38" s="1" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
+      <c r="P38" s="8" t="b">
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4844,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="H39" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I39" s="1">
@@ -4870,8 +4885,8 @@
         <v>18</v>
       </c>
       <c r="P39" s="1" t="b">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -4885,7 +4900,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I40" s="1">
@@ -4911,7 +4926,7 @@
         <v>18</v>
       </c>
       <c r="P40" s="1" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="P36:P40" si="23" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -4926,7 +4941,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="M41" s="1">
@@ -4954,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -4969,7 +4984,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -4984,7 +4999,7 @@
         <v>18</v>
       </c>
       <c r="H44" s="1" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -5009,28 +5024,28 @@
       </c>
       <c r="L47" s="2">
         <f xml:space="preserve"> COUNTIF(L2:L40, "VRAI")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P47" s="2">
         <f xml:space="preserve"> COUNTIF(P2:P41, "VRAI")</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="T47" s="2">
         <f xml:space="preserve"> COUNTIF(T2:T30, "VRAI")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="X47" s="2">
         <f xml:space="preserve"> COUNTIF(X2:X34, "VRAI")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA47" s="5" t="s">
         <v>25</v>
@@ -5060,28 +5075,28 @@
       </c>
       <c r="L48">
         <f>COUNTIF(L2:L40, "FAUX")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P48">
         <f>COUNTIF(P2:P41, "FAUX")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="T48">
         <f>COUNTIF(T2:T30, "FAUX")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="X48">
         <f>COUNTIF(X2:X34, "FAUX")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="5" t="s">
         <v>26</v>
@@ -5162,28 +5177,28 @@
       </c>
       <c r="L50">
         <f xml:space="preserve"> L47/L49</f>
-        <v>0.87179487179487181</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P50">
         <f xml:space="preserve"> P47/P49</f>
-        <v>0.82499999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T50">
         <f xml:space="preserve"> T47/T49</f>
-        <v>0.93103448275862066</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="X50">
         <f xml:space="preserve"> X47/X49</f>
-        <v>0.96969696969696972</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="5" t="s">
         <v>28</v>
@@ -5199,7 +5214,7 @@
       </c>
       <c r="B52">
         <f xml:space="preserve"> D47+H47+L47+P47+T47+X47+AB47</f>
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,7 +5232,7 @@
       </c>
       <c r="B54">
         <f xml:space="preserve"> B52/B53</f>
-        <v>0.92653061224489797</v>
+        <v>0.95918367346938771</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5256,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="2" t="b">
-        <f t="shared" ref="D59:D64" si="25">FALSE</f>
+        <f t="shared" ref="D59:D64" si="24">FALSE</f>
         <v>0</v>
       </c>
       <c r="E59" s="1">
@@ -5321,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="X59" s="1" t="b">
-        <f t="shared" ref="T59:X65" si="26" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="T59:X65" si="25" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
@@ -5334,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="AB59" s="1" t="b">
-        <f t="shared" ref="AB59" si="27" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="AB59" si="26" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5349,61 +5364,61 @@
         <v>15</v>
       </c>
       <c r="D60" s="2" t="b">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6022406</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <f t="shared" ref="H60:H61" si="27" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4142865</v>
+      </c>
+      <c r="J60" s="1">
+        <v>27</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <f t="shared" ref="L60" si="28" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>6006758</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" t="b">
+        <f t="shared" ref="P60:P62" si="29" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4506727</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T60" s="1" t="b">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>6022406</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1" t="b">
-        <f t="shared" ref="H60:H61" si="28" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>4142865</v>
-      </c>
-      <c r="J60" s="1">
-        <v>27</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="1" t="b">
-        <f t="shared" ref="L60" si="29" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>6006758</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" t="b">
-        <f t="shared" ref="P60:P62" si="30" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>4506727</v>
-      </c>
-      <c r="R60" s="1">
-        <v>1</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T60" s="1" t="b">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
       <c r="U60" s="1">
         <v>6123705</v>
       </c>
@@ -5414,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="X60" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -5429,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E61" s="1">
@@ -5442,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="1" t="b">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -5468,7 +5483,7 @@
         <v>15</v>
       </c>
       <c r="P61" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
@@ -5481,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="T61" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U61" s="1">
@@ -5494,7 +5509,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="1" t="b">
-        <f t="shared" ref="X61:X63" si="31" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X61:X63" si="30" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5509,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E62" s="1">
@@ -5548,7 +5563,7 @@
         <v>23</v>
       </c>
       <c r="P62" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
@@ -5561,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="T62" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U62" s="1">
@@ -5574,7 +5589,7 @@
         <v>24</v>
       </c>
       <c r="X62" s="1" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -5589,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E63" s="1">
@@ -5615,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="L63" s="1" t="b">
-        <f t="shared" ref="L63:L65" si="32" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="L63:L65" si="31" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="M63" s="1">
@@ -5641,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="T63" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U63" s="1">
@@ -5654,7 +5669,7 @@
         <v>18</v>
       </c>
       <c r="X63" s="1" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -5669,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E64" s="1">
@@ -5695,7 +5710,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="1" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
@@ -5721,7 +5736,7 @@
         <v>7</v>
       </c>
       <c r="T64" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U64" s="1">
@@ -5734,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="X64" t="b">
-        <f t="shared" ref="X64:X65" si="33" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X64:X65" si="32" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5775,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="L65" s="1" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
@@ -5801,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="T65" s="1" t="b">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U65" s="1">
@@ -5814,7 +5829,7 @@
         <v>18</v>
       </c>
       <c r="X65" t="b">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>

--- a/Tabella_Excel.xlsx
+++ b/Tabella_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico Orlacchio\Desktop\Primo anno ECL\ECL_S8_D\PLM_Grande_Roue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC070FA-64D1-4018-A808-B55E943B0E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0314001-B721-463F-81C4-D53D040FA91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1648,8 +1648,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2728,8 +2728,8 @@
         <v>11</v>
       </c>
       <c r="P12" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
         <v>4514553</v>
@@ -4218,8 +4218,8 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>4211387</v>
@@ -4777,8 +4777,8 @@
         <v>10</v>
       </c>
       <c r="L37" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
         <v>6012451</v>
@@ -4831,8 +4831,8 @@
         <v>10</v>
       </c>
       <c r="L38" s="1" t="b">
-        <f xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
         <v>4514558</v>
@@ -4926,8 +4926,8 @@
         <v>18</v>
       </c>
       <c r="P40" s="1" t="b">
-        <f t="shared" ref="P36:P40" si="23" xml:space="preserve"> FALSE</f>
-        <v>0</v>
+        <f xml:space="preserve"> TRUE</f>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D47" s="2">
         <f xml:space="preserve"> COUNTIF(D1:D38, "VRAI")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>25</v>
@@ -5024,14 +5024,14 @@
       </c>
       <c r="L47" s="2">
         <f xml:space="preserve"> COUNTIF(L2:L40, "VRAI")</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P47" s="2">
         <f xml:space="preserve"> COUNTIF(P2:P41, "VRAI")</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>25</v>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="D48">
         <f>COUNTIF(D2:D38, "FAUX")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>26</v>
@@ -5075,14 +5075,14 @@
       </c>
       <c r="L48">
         <f>COUNTIF(L2:L40, "FAUX")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P48">
         <f>COUNTIF(P2:P41, "FAUX")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>26</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="D50">
         <f xml:space="preserve"> D47/D49</f>
-        <v>0.94594594594594594</v>
+        <v>0.97297297297297303</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>28</v>
@@ -5177,14 +5177,14 @@
       </c>
       <c r="L50">
         <f xml:space="preserve"> L47/L49</f>
-        <v>0.89743589743589747</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P50">
         <f xml:space="preserve"> P47/P49</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>28</v>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B52">
         <f xml:space="preserve"> D47+H47+L47+P47+T47+X47+AB47</f>
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="B54">
         <f xml:space="preserve"> B52/B53</f>
-        <v>0.95918367346938771</v>
+        <v>0.97959183673469385</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="2" t="b">
-        <f t="shared" ref="D59:D64" si="24">FALSE</f>
+        <f t="shared" ref="D59:D64" si="23">FALSE</f>
         <v>0</v>
       </c>
       <c r="E59" s="1">
@@ -5336,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="X59" s="1" t="b">
-        <f t="shared" ref="T59:X65" si="25" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="T59:X65" si="24" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
@@ -5349,7 +5349,7 @@
         <v>6</v>
       </c>
       <c r="AB59" s="1" t="b">
-        <f t="shared" ref="AB59" si="26" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="AB59" si="25" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5364,61 +5364,61 @@
         <v>15</v>
       </c>
       <c r="D60" s="2" t="b">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>6022406</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <f t="shared" ref="H60:H61" si="26" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4142865</v>
+      </c>
+      <c r="J60" s="1">
+        <v>27</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <f t="shared" ref="L60" si="27" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>6006758</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P60" t="b">
+        <f t="shared" ref="P60:P62" si="28" xml:space="preserve"> FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4506727</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T60" s="1" t="b">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E60" s="1">
-        <v>6022406</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="1" t="b">
-        <f t="shared" ref="H60:H61" si="27" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>4142865</v>
-      </c>
-      <c r="J60" s="1">
-        <v>27</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L60" s="1" t="b">
-        <f t="shared" ref="L60" si="28" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>6006758</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P60" t="b">
-        <f t="shared" ref="P60:P62" si="29" xml:space="preserve"> FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>4506727</v>
-      </c>
-      <c r="R60" s="1">
-        <v>1</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T60" s="1" t="b">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
       <c r="U60" s="1">
         <v>6123705</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="X60" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="2" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E61" s="1">
@@ -5457,7 +5457,7 @@
         <v>10</v>
       </c>
       <c r="H61" s="1" t="b">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -5483,7 +5483,7 @@
         <v>15</v>
       </c>
       <c r="P61" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
@@ -5496,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="T61" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U61" s="1">
@@ -5509,7 +5509,7 @@
         <v>24</v>
       </c>
       <c r="X61" s="1" t="b">
-        <f t="shared" ref="X61:X63" si="30" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X61:X63" si="29" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="2" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E62" s="1">
@@ -5563,7 +5563,7 @@
         <v>23</v>
       </c>
       <c r="P62" t="b">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
@@ -5576,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="T62" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U62" s="1">
@@ -5589,7 +5589,7 @@
         <v>24</v>
       </c>
       <c r="X62" s="1" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="D63" s="2" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E63" s="1">
@@ -5630,7 +5630,7 @@
         <v>17</v>
       </c>
       <c r="L63" s="1" t="b">
-        <f t="shared" ref="L63:L65" si="31" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="L63:L65" si="30" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
       <c r="M63" s="1">
@@ -5656,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="T63" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U63" s="1">
@@ -5669,7 +5669,7 @@
         <v>18</v>
       </c>
       <c r="X63" s="1" t="b">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="b">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E64" s="1">
@@ -5710,7 +5710,7 @@
         <v>17</v>
       </c>
       <c r="L64" s="1" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
@@ -5736,7 +5736,7 @@
         <v>7</v>
       </c>
       <c r="T64" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U64" s="1">
@@ -5749,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="X64" t="b">
-        <f t="shared" ref="X64:X65" si="32" xml:space="preserve"> FALSE</f>
+        <f t="shared" ref="X64:X65" si="31" xml:space="preserve"> FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>5</v>
       </c>
       <c r="L65" s="1" t="b">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
@@ -5816,7 +5816,7 @@
         <v>7</v>
       </c>
       <c r="T65" s="1" t="b">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U65" s="1">
@@ -5829,7 +5829,7 @@
         <v>18</v>
       </c>
       <c r="X65" t="b">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -6325,8 +6325,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D29" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>